--- a/data/small/l_data10.xlsx
+++ b/data/small/l_data10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E91494-B455-46DA-8B3F-7ADBCC357B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED939D-4E23-4ACB-A251-B01939FB3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="305">
   <si>
     <t>id</t>
   </si>
@@ -258,9 +258,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -270,33 +267,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -321,138 +303,60 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
     <t>0,0,1,0,1</t>
   </si>
   <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
     <t>1,0,1,0,1</t>
   </si>
   <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -465,57 +369,27 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
   </si>
   <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
-  </si>
-  <si>
     <t>like3</t>
   </si>
   <si>
@@ -760,303 +634,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
-  </si>
-  <si>
-    <t>孙寿媚</t>
-  </si>
-  <si>
-    <t>李会</t>
-  </si>
-  <si>
-    <t>何磊</t>
-  </si>
-  <si>
-    <t>李承云</t>
-  </si>
-  <si>
-    <t>黄治球</t>
-  </si>
-  <si>
-    <t>苏杰童</t>
-  </si>
-  <si>
-    <t>韦圣贤</t>
-  </si>
-  <si>
-    <t>周卫</t>
-  </si>
-  <si>
-    <t>韦晓萍</t>
-  </si>
-  <si>
-    <t>莫靖林</t>
-  </si>
-  <si>
-    <t>莫愿斌</t>
-  </si>
-  <si>
-    <t>李熹</t>
-  </si>
-  <si>
-    <t>张纲强</t>
-  </si>
-  <si>
-    <t>韦一</t>
-  </si>
-  <si>
-    <t>叶吉丽</t>
-  </si>
-  <si>
-    <t>蒋权</t>
-  </si>
-  <si>
-    <t>李海滨</t>
-  </si>
-  <si>
-    <t>李文韬</t>
-  </si>
-  <si>
-    <t>唐佳燊</t>
-  </si>
-  <si>
-    <t>黄天城</t>
-  </si>
-  <si>
-    <t>张桂芬</t>
-  </si>
-  <si>
-    <t>梁新宇</t>
-  </si>
-  <si>
-    <t>滕开良</t>
-  </si>
-  <si>
-    <t>童雅俊</t>
-  </si>
-  <si>
-    <t>汤卫东</t>
-  </si>
-  <si>
-    <t>陆美曲</t>
-  </si>
-  <si>
-    <t>张牧行</t>
-  </si>
-  <si>
-    <t>赵地</t>
-  </si>
-  <si>
-    <t>蒋明</t>
-  </si>
-  <si>
-    <t>刘勇</t>
-  </si>
-  <si>
-    <t>覃春芳</t>
-  </si>
-  <si>
-    <t>何建强</t>
-  </si>
-  <si>
-    <t>劳欢</t>
-  </si>
-  <si>
-    <t>梁啸</t>
-  </si>
-  <si>
-    <t>白凤波</t>
-  </si>
-  <si>
-    <t>韦艳艳</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>葛丽娜</t>
-  </si>
-  <si>
-    <t>方郗</t>
-  </si>
-  <si>
-    <t>高广尚</t>
-  </si>
-  <si>
-    <t>杨丽丽</t>
-  </si>
-  <si>
-    <t>文勇</t>
-  </si>
-  <si>
-    <t>蒋荣萍</t>
-  </si>
-  <si>
-    <t>邓艳平</t>
-  </si>
-  <si>
-    <t>裴胜玉</t>
-  </si>
-  <si>
-    <t>石丽芳</t>
-  </si>
-  <si>
-    <t>朱映运</t>
-  </si>
-  <si>
-    <t>吴岸燕</t>
-  </si>
-  <si>
-    <t>李丽娟</t>
-  </si>
-  <si>
-    <t>陆月香</t>
-  </si>
-  <si>
-    <t>胡雪婷</t>
-  </si>
-  <si>
-    <t>蓝艳芳</t>
-  </si>
-  <si>
-    <t>伍琼</t>
-  </si>
-  <si>
-    <t>何转红</t>
-  </si>
-  <si>
-    <t>韦雯</t>
-  </si>
-  <si>
-    <t>刘芳琼</t>
-  </si>
-  <si>
-    <t>贺小燕</t>
-  </si>
-  <si>
-    <t>刘梦颖</t>
-  </si>
-  <si>
-    <t>邹宇灵</t>
-  </si>
-  <si>
-    <t>程文凤</t>
-  </si>
-  <si>
-    <t>覃青必</t>
-  </si>
-  <si>
-    <t>唐维</t>
-  </si>
-  <si>
-    <t>周园</t>
-  </si>
-  <si>
-    <t>尚艳华</t>
-  </si>
-  <si>
-    <t>梁正</t>
-  </si>
-  <si>
-    <t>刘美杏</t>
-  </si>
-  <si>
-    <t>陈彦君</t>
-  </si>
-  <si>
-    <t>柳鸿志</t>
-  </si>
-  <si>
-    <t>刘逸峰</t>
-  </si>
-  <si>
-    <t>朱A</t>
-  </si>
-  <si>
-    <t>朱C</t>
   </si>
   <si>
     <t>小教室</t>
@@ -1299,16 +876,121 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,0,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0,0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-1,0,0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1435,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1767,7 +1449,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,7 +1460,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1789,7 +1471,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,7 +1482,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,7 +1504,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,7 +1515,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,7 +1526,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1537,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2478,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2593,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>348</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3319,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>349</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -3352,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>406</v>
+        <v>265</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>71</v>
@@ -3373,7 +3055,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3411,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3441,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3471,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3501,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3517,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3531,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3561,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3591,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3651,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3681,7 +3363,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3711,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3727,7 +3409,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3741,7 +3423,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3771,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3831,7 +3513,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3861,7 +3543,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3891,7 +3573,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3921,7 +3603,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3951,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -4011,7 +3693,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4101,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4131,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4147,7 +3829,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4161,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4191,7 +3873,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4221,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4251,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4311,7 +3993,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4341,7 +4023,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4357,7 +4039,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4371,7 +4053,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4401,7 +4083,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4431,7 +4113,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4461,7 +4143,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4491,7 +4173,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4551,7 +4233,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4581,7 +4263,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4611,7 +4293,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4641,7 +4323,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4671,7 +4353,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4731,7 +4413,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4761,7 +4443,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4777,7 +4459,7 @@
         <v>74</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4791,7 +4473,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4821,7 +4503,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4851,7 +4533,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>232</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4911,7 +4593,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4987,7 +4669,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5001,7 +4683,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -5031,7 +4713,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -5061,7 +4743,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -5091,7 +4773,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -5121,7 +4803,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -5151,7 +4833,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -5181,7 +4863,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -5211,7 +4893,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -5241,7 +4923,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -5271,7 +4953,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5361,7 +5043,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5391,7 +5073,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5407,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5481,7 +5163,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5511,7 +5193,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5617,7 +5299,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5631,7 +5313,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5721,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5751,7 +5433,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5781,7 +5463,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -5811,7 +5493,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -5841,7 +5523,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -5871,7 +5553,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -5901,7 +5583,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>242</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -5961,7 +5643,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5991,7 +5673,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -6037,7 +5719,7 @@
         <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -6051,7 +5733,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>244</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -6081,7 +5763,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -6141,7 +5823,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -6231,7 +5913,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -6247,7 +5929,7 @@
         <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -6261,7 +5943,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -6291,7 +5973,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -6321,7 +6003,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -6351,7 +6033,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -6411,7 +6093,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -6441,7 +6123,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -6501,7 +6183,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -6531,7 +6213,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -6561,7 +6243,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -6651,7 +6333,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -6667,7 +6349,7 @@
         <v>74</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -6681,7 +6363,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -6711,7 +6393,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -6801,7 +6483,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -6831,7 +6513,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -6861,7 +6543,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -6877,7 +6559,7 @@
         <v>74</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -6981,7 +6663,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -7011,7 +6693,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -7161,7 +6843,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>398</v>
+        <v>257</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -7191,7 +6873,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>258</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -7221,7 +6903,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>400</v>
+        <v>259</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -7297,7 +6979,7 @@
         <v>74</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -7341,7 +7023,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>401</v>
+        <v>260</v>
       </c>
       <c r="C134">
         <v>133</v>
@@ -7461,7 +7143,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>402</v>
+        <v>261</v>
       </c>
       <c r="C138">
         <v>137</v>
@@ -7491,7 +7173,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>402</v>
+        <v>261</v>
       </c>
       <c r="C139">
         <v>138</v>
@@ -7507,7 +7189,7 @@
         <v>74</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -7581,7 +7263,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -7641,7 +7323,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="C144">
         <v>143</v>
@@ -7671,7 +7353,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -7701,7 +7383,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
       <c r="C146">
         <v>145</v>
@@ -7731,7 +7413,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="C147">
         <v>146</v>
@@ -7761,7 +7443,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="C148">
         <v>147</v>
@@ -7791,7 +7473,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>405</v>
+        <v>264</v>
       </c>
       <c r="C149">
         <v>148</v>
@@ -7821,7 +7503,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>405</v>
+        <v>264</v>
       </c>
       <c r="C150">
         <v>149</v>
@@ -7884,27 +7566,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7912,10 +7594,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7923,10 +7605,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7934,10 +7616,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7945,10 +7627,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7956,10 +7638,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7967,10 +7649,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7978,10 +7660,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7989,10 +7671,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8000,10 +7682,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,10 +7693,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8022,10 +7704,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8033,10 +7715,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8044,10 +7726,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8055,10 +7737,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8066,10 +7748,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,10 +7759,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8088,10 +7770,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8099,10 +7781,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8110,10 +7792,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,10 +7803,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8132,10 +7814,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8143,10 +7825,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8154,10 +7836,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8165,10 +7847,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8176,10 +7858,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8187,10 +7869,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8198,10 +7880,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8209,10 +7891,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8220,10 +7902,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8231,10 +7913,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8242,10 +7924,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8253,10 +7935,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8264,10 +7946,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8275,10 +7957,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8286,10 +7968,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8297,10 +7979,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8308,10 +7990,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8319,10 +8001,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8330,10 +8012,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8341,10 +8023,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8352,10 +8034,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8363,10 +8045,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,10 +8056,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8385,10 +8067,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8399,7 +8081,7 @@
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8407,10 +8089,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8418,10 +8100,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8429,10 +8111,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8440,10 +8122,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8451,10 +8133,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8462,10 +8144,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8473,10 +8155,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8484,10 +8166,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8495,10 +8177,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8506,10 +8188,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8517,10 +8199,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8528,10 +8210,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8539,10 +8221,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8550,10 +8232,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8561,10 +8243,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8572,10 +8254,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8583,10 +8265,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -8594,10 +8276,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8605,10 +8287,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -8616,10 +8298,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -8627,10 +8309,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8638,10 +8320,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8649,10 +8331,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -8660,10 +8342,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -8671,10 +8353,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -8682,10 +8364,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -8693,10 +8375,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -8704,10 +8386,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -8715,10 +8397,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -8726,10 +8408,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -8737,10 +8419,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -8748,10 +8430,594 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="C78" t="s">
-        <v>244</v>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8764,48 +9030,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8813,16 +9065,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8830,16 +9076,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8847,16 +9087,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,16 +9098,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,16 +9109,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8898,16 +9120,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,16 +9131,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8932,16 +9142,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8949,16 +9153,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8966,16 +9164,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8983,16 +9175,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,16 +9186,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9017,16 +9197,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9034,1458 +9208,945 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
         <v>122</v>
       </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>165</v>
-      </c>
-      <c r="E88" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" t="s">
-        <v>164</v>
-      </c>
-      <c r="E93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" t="s">
-        <v>165</v>
-      </c>
-      <c r="E96" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" t="s">
-        <v>166</v>
-      </c>
-      <c r="E97" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
-      </c>
-      <c r="D98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
-      </c>
-      <c r="D99" t="s">
-        <v>164</v>
-      </c>
-      <c r="E99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
-      </c>
-      <c r="D100" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>407</v>
+        <v>86</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data10.xlsx
+++ b/data/small/l_data10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED939D-4E23-4ACB-A251-B01939FB3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289040FD-A07F-40B3-8351-B0304F82E91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -291,24 +291,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -336,18 +321,12 @@
     <t>1,0,1,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -360,18 +339,12 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -379,12 +352,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -876,24 +843,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
@@ -909,81 +867,30 @@
     <t>0,0,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,1,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,0,0</t>
   </si>
   <si>
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
     <t>0,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
     <t>1,1,0,-1,-1</t>
   </si>
   <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
@@ -991,6 +898,165 @@
   </si>
   <si>
     <t>0,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,-1,0,-1,-1</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1501,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1449,7 +1515,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,7 +1526,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,7 +1559,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,7 +1581,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,7 +1592,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,7 +1603,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2160,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3034,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>71</v>
@@ -3055,7 +3121,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3123,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3153,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3183,7 +3249,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3199,7 +3265,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3213,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3243,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3273,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3333,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3363,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3393,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3409,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3423,7 +3489,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3453,7 +3519,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3513,7 +3579,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3543,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3573,7 +3639,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3603,7 +3669,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3633,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3693,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3783,7 +3849,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3813,7 +3879,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3829,7 +3895,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3843,7 +3909,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3873,7 +3939,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3903,7 +3969,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3933,7 +3999,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3993,7 +4059,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4023,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4039,7 +4105,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4053,7 +4119,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4083,7 +4149,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4113,7 +4179,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4143,7 +4209,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4173,7 +4239,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4233,7 +4299,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4263,7 +4329,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4293,7 +4359,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4323,7 +4389,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4353,7 +4419,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4413,7 +4479,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4443,7 +4509,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4459,7 +4525,7 @@
         <v>74</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4473,7 +4539,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4503,7 +4569,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4533,7 +4599,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4593,7 +4659,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4669,7 +4735,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4683,7 +4749,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4713,7 +4779,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4743,7 +4809,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4773,7 +4839,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4803,7 +4869,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -4833,7 +4899,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -4863,7 +4929,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -4893,7 +4959,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -4923,7 +4989,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4953,7 +5019,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5043,7 +5109,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5073,7 +5139,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5089,7 +5155,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5163,7 +5229,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5193,7 +5259,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5299,7 +5365,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5313,7 +5379,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5403,7 +5469,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5433,7 +5499,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5463,7 +5529,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -5493,7 +5559,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -5523,7 +5589,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -5553,7 +5619,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -5583,7 +5649,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -5643,7 +5709,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5673,7 +5739,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -5719,7 +5785,7 @@
         <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -5733,7 +5799,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -5763,7 +5829,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -5823,7 +5889,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -5913,7 +5979,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -5929,7 +5995,7 @@
         <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -5943,7 +6009,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -5973,7 +6039,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -6003,7 +6069,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -6033,7 +6099,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -6093,7 +6159,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -6123,7 +6189,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -6183,7 +6249,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -6213,7 +6279,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -6243,7 +6309,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -6333,7 +6399,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -6349,7 +6415,7 @@
         <v>74</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -6363,7 +6429,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -6393,7 +6459,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -6483,7 +6549,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -6513,7 +6579,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -6543,7 +6609,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -6559,7 +6625,7 @@
         <v>74</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -6663,7 +6729,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -6693,7 +6759,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -6843,7 +6909,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -6873,7 +6939,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -6903,7 +6969,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -6979,7 +7045,7 @@
         <v>74</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -7023,7 +7089,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C134">
         <v>133</v>
@@ -7143,7 +7209,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C138">
         <v>137</v>
@@ -7173,7 +7239,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C139">
         <v>138</v>
@@ -7189,7 +7255,7 @@
         <v>74</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -7263,7 +7329,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -7323,7 +7389,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C144">
         <v>143</v>
@@ -7353,7 +7419,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -7383,7 +7449,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C146">
         <v>145</v>
@@ -7413,7 +7479,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C147">
         <v>146</v>
@@ -7443,7 +7509,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C148">
         <v>147</v>
@@ -7473,7 +7539,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C149">
         <v>148</v>
@@ -7503,7 +7569,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C150">
         <v>149</v>
@@ -7568,25 +7634,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7594,10 +7659,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,10 +7670,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7616,10 +7681,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,10 +7692,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7638,10 +7703,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7649,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7660,10 +7725,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7671,10 +7736,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7682,10 +7747,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7693,10 +7758,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,10 +7769,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7715,10 +7780,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7726,10 +7791,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7737,10 +7802,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7748,10 +7813,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7759,10 +7824,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7770,10 +7835,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7781,10 +7846,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7792,10 +7857,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,10 +7868,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,10 +7879,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7825,10 +7890,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7836,10 +7901,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7847,10 +7912,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7858,10 +7923,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,10 +7934,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7880,10 +7945,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,10 +7956,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7902,10 +7967,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7913,10 +7978,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7924,10 +7989,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7935,10 +8000,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7946,10 +8011,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7957,10 +8022,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7968,10 +8033,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7979,10 +8044,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7990,10 +8055,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8001,10 +8066,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8012,10 +8077,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8023,10 +8088,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8034,10 +8099,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8045,10 +8110,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8056,10 +8121,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8067,10 +8132,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8078,10 +8143,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8089,10 +8154,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8100,10 +8165,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8111,10 +8176,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8122,10 +8187,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8133,10 +8198,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8144,10 +8209,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,10 +8220,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8166,10 +8231,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8177,10 +8242,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8188,10 +8253,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8199,10 +8264,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8210,10 +8275,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8224,7 +8289,7 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8232,10 +8297,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8243,10 +8308,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8254,10 +8319,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8265,10 +8330,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -8276,10 +8341,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8287,10 +8352,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -8298,10 +8363,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -8309,10 +8374,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8320,10 +8385,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8331,10 +8396,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,10 +8407,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -8353,10 +8418,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -8364,10 +8429,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -8375,10 +8440,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,10 +8451,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -8397,10 +8462,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -8408,10 +8473,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,10 +8484,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -8430,10 +8495,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -8441,7 +8506,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -8449,7 +8514,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8457,7 +8522,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8465,7 +8530,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8473,7 +8538,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8481,7 +8546,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8489,7 +8554,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8497,7 +8562,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8505,7 +8570,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8513,7 +8578,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8521,7 +8586,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8529,7 +8594,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8537,7 +8602,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8545,7 +8610,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8553,7 +8618,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8561,7 +8626,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8569,7 +8634,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8577,7 +8642,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8585,7 +8650,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8593,7 +8658,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8601,7 +8666,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8609,7 +8674,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8617,7 +8682,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8625,7 +8690,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8633,7 +8698,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8641,7 +8706,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8649,7 +8714,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8657,7 +8722,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8665,7 +8730,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8673,7 +8738,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8681,7 +8746,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8697,7 +8762,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -8705,7 +8770,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>279</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8713,7 +8778,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8721,7 +8786,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8729,7 +8794,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -8737,7 +8802,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8745,7 +8810,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -8753,7 +8818,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +8826,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8834,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8777,7 +8842,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8785,7 +8850,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8793,7 +8858,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8801,7 +8866,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8809,7 +8874,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8817,7 +8882,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -8825,7 +8890,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8898,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8906,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8849,7 +8914,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8857,7 +8922,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -8865,7 +8930,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8873,7 +8938,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8881,7 +8946,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8889,7 +8954,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8897,7 +8962,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +8970,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8978,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -8921,7 +8986,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -8929,7 +8994,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -8937,7 +9002,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -8945,7 +9010,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -8953,7 +9018,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -8961,7 +9026,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -8969,7 +9034,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +9042,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9050,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -8993,7 +9058,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -9001,7 +9066,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -9009,7 +9074,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -9017,7 +9082,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9030,21 +9095,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -9054,10 +9119,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9065,10 +9130,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9076,10 +9141,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9087,10 +9152,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9098,10 +9163,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9109,10 +9174,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9120,10 +9185,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9131,10 +9196,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9142,10 +9207,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,10 +9218,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9164,10 +9229,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9175,10 +9240,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9186,10 +9251,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9197,10 +9262,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9208,10 +9273,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9219,10 +9284,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9230,10 +9295,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9241,10 +9306,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9252,10 +9317,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9263,10 +9328,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9274,10 +9339,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9285,10 +9350,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9296,10 +9361,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9307,10 +9372,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9318,10 +9383,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9329,10 +9394,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9340,10 +9405,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9351,10 +9416,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9362,10 +9427,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9376,7 +9441,7 @@
         <v>287</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9384,10 +9449,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9395,10 +9460,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9406,10 +9471,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9417,10 +9482,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9428,10 +9493,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9439,10 +9504,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9450,10 +9515,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9461,10 +9526,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9472,10 +9537,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9483,10 +9548,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9494,10 +9559,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9505,10 +9570,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9516,10 +9581,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9527,10 +9592,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9538,10 +9603,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9549,10 +9614,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9560,10 +9625,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9571,10 +9636,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9582,10 +9647,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9593,10 +9658,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9604,10 +9669,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9615,10 +9680,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9626,10 +9691,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" t="s">
         <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9637,10 +9702,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9648,10 +9713,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9659,10 +9724,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9670,10 +9735,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9681,10 +9746,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9692,10 +9757,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9703,10 +9768,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9714,10 +9779,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9725,10 +9790,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9736,10 +9801,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9747,10 +9812,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9758,10 +9823,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9769,10 +9834,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9780,10 +9845,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9791,10 +9856,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9802,10 +9867,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9813,10 +9878,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9824,10 +9889,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9835,10 +9900,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9846,10 +9911,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9857,10 +9922,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9868,10 +9933,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9879,10 +9944,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9890,10 +9955,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>307</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9901,10 +9966,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9912,10 +9977,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9923,10 +9988,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9934,10 +9999,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9945,10 +10010,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9956,10 +10021,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9967,10 +10032,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9978,10 +10043,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9989,10 +10054,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,10 +10065,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,10 +10076,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10022,10 +10087,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10033,10 +10098,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10044,10 +10109,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10055,10 +10120,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10066,10 +10131,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10077,10 +10142,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10088,10 +10153,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10099,10 +10164,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -10110,10 +10175,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10121,10 +10186,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,10 +10197,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -10143,10 +10208,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
